--- a/casual1/Assets/Resources/GradeDB.xlsx
+++ b/casual1/Assets/Resources/GradeDB.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,10 +532,10 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/casual1/Assets/Resources/GradeDB.xlsx
+++ b/casual1/Assets/Resources/GradeDB.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,10 +532,10 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -578,10 +578,10 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,10 +601,10 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/casual1/Assets/Resources/GradeDB.xlsx
+++ b/casual1/Assets/Resources/GradeDB.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,10 +601,10 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -624,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -647,10 +647,10 @@
         <v>21</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -670,10 +670,10 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -693,10 +693,10 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -716,10 +716,10 @@
         <v>24</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/GradeDB.xlsx
+++ b/casual1/Assets/Resources/GradeDB.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,7 +618,7 @@
         <v>151</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -638,10 +638,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="D8">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -661,10 +661,10 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="D9">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -684,10 +684,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="D10">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>501</v>
+        <v>801</v>
       </c>
       <c r="D11">
         <v>9999</v>

--- a/casual1/Assets/Resources/GradeDB.xlsx
+++ b/casual1/Assets/Resources/GradeDB.xlsx
@@ -121,11 +121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Beginner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>255:255:213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beginner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>0</v>
